--- a/documentation/quality/Test Documents/05 TC - Product Inventory.xlsx
+++ b/documentation/quality/Test Documents/05 TC - Product Inventory.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="245">
   <si>
     <t>Tester:</t>
   </si>
@@ -980,15 +980,33 @@
   <si>
     <t>FTC_PA11</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,7 +1048,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1076,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,6 +1340,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1324,77 +1357,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1439,6 +1430,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1517,6 +1513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1551,6 +1548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1726,14 +1724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1743,51 +1741,91 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="I2" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="I3" s="61">
+        <f>AVERAGE(Sheet2!B17/75)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="61">
+        <f>AVERAGE(Sheet2!C17/75)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="61">
+        <f>AVERAGE(Sheet2!D17/75)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="61">
+        <f>AVERAGE(Sheet2!E17/75)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="61">
+        <f>SUM(I3:L4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>5</v>
       </c>
@@ -1800,7 +1838,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="120.75" thickBot="1">
+    <row r="7" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>64</v>
       </c>
@@ -1839,17 +1877,17 @@
         <v>7</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="51"/>
-    </row>
-    <row r="8" spans="1:15" ht="75">
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>65</v>
       </c>
@@ -1866,7 +1904,7 @@
       </c>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>66</v>
       </c>
@@ -1883,7 +1921,7 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>67</v>
       </c>
@@ -1900,7 +1938,7 @@
       </c>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="195">
+    <row r="11" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
@@ -1917,7 +1955,7 @@
       </c>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>69</v>
       </c>
@@ -1934,7 +1972,7 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1">
+    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>5.0999999999999996</v>
       </c>
@@ -1947,7 +1985,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>70</v>
       </c>
@@ -1964,7 +2002,7 @@
       </c>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>71</v>
       </c>
@@ -1981,7 +2019,7 @@
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="45">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>72</v>
       </c>
@@ -1998,7 +2036,7 @@
       </c>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>73</v>
       </c>
@@ -2015,7 +2053,7 @@
       </c>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>74</v>
       </c>
@@ -2032,7 +2070,7 @@
       </c>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>5.2</v>
       </c>
@@ -2045,7 +2083,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>80</v>
       </c>
@@ -2062,7 +2100,7 @@
       </c>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>81</v>
       </c>
@@ -2079,7 +2117,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" ht="60">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>82</v>
       </c>
@@ -2096,7 +2134,7 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="60">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>83</v>
       </c>
@@ -2113,7 +2151,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="45">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>84</v>
       </c>
@@ -2130,7 +2168,7 @@
       </c>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>85</v>
       </c>
@@ -2147,7 +2185,7 @@
       </c>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="45">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>86</v>
       </c>
@@ -2164,7 +2202,7 @@
       </c>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>87</v>
       </c>
@@ -2181,7 +2219,7 @@
       </c>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="60">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>88</v>
       </c>
@@ -2198,7 +2236,7 @@
       </c>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="60">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>89</v>
       </c>
@@ -2215,7 +2253,7 @@
       </c>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>112</v>
       </c>
@@ -2232,7 +2270,7 @@
       </c>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>113</v>
       </c>
@@ -2249,7 +2287,7 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="75">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>114</v>
       </c>
@@ -2266,7 +2304,7 @@
       </c>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="75">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>126</v>
       </c>
@@ -2283,7 +2321,7 @@
       </c>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>5.3</v>
       </c>
@@ -2296,7 +2334,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>116</v>
       </c>
@@ -2315,7 +2353,7 @@
       </c>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>117</v>
       </c>
@@ -2334,7 +2372,7 @@
       </c>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="60">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>118</v>
       </c>
@@ -2353,7 +2391,7 @@
       </c>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" ht="45">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>119</v>
       </c>
@@ -2372,7 +2410,7 @@
       </c>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" ht="45">
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>120</v>
       </c>
@@ -2391,7 +2429,7 @@
       </c>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>121</v>
       </c>
@@ -2410,7 +2448,7 @@
       </c>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="60">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>122</v>
       </c>
@@ -2420,7 +2458,7 @@
       <c r="C41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="43">
         <v>42075</v>
       </c>
       <c r="E41" s="1"/>
@@ -2429,7 +2467,7 @@
       </c>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" ht="60">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>123</v>
       </c>
@@ -2448,7 +2486,7 @@
       </c>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>236</v>
       </c>
@@ -2467,7 +2505,7 @@
       </c>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="75">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>237</v>
       </c>
@@ -2486,7 +2524,7 @@
       </c>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" ht="60">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>238</v>
       </c>
@@ -2505,7 +2543,7 @@
       </c>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>5.4</v>
       </c>
@@ -2518,7 +2556,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="31"/>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>158</v>
       </c>
@@ -2535,7 +2573,7 @@
       </c>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:7" ht="195">
+    <row r="48" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>159</v>
       </c>
@@ -2552,7 +2590,7 @@
       </c>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="75">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>160</v>
       </c>
@@ -2569,7 +2607,7 @@
       </c>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7" ht="90">
+    <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>161</v>
       </c>
@@ -2586,7 +2624,7 @@
       </c>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" ht="75">
+    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>162</v>
       </c>
@@ -2603,7 +2641,7 @@
       </c>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="75">
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>163</v>
       </c>
@@ -2620,7 +2658,7 @@
       </c>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" spans="1:7" ht="75">
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>164</v>
       </c>
@@ -2637,7 +2675,7 @@
       </c>
       <c r="G53" s="25"/>
     </row>
-    <row r="54" spans="1:7" ht="75">
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>165</v>
       </c>
@@ -2654,7 +2692,7 @@
       </c>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>5.5</v>
       </c>
@@ -2667,7 +2705,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="31"/>
     </row>
-    <row r="56" spans="1:7" ht="75">
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>173</v>
       </c>
@@ -2684,7 +2722,7 @@
       </c>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>174</v>
       </c>
@@ -2701,7 +2739,7 @@
       </c>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" ht="75">
+    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>175</v>
       </c>
@@ -2718,7 +2756,7 @@
       </c>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" ht="150">
+    <row r="59" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>176</v>
       </c>
@@ -2735,7 +2773,7 @@
       </c>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" ht="60">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>177</v>
       </c>
@@ -2752,7 +2790,7 @@
       </c>
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="1:7" ht="45">
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>178</v>
       </c>
@@ -2765,7 +2803,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="34"/>
     </row>
-    <row r="62" spans="1:7" ht="45">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>185</v>
       </c>
@@ -2784,7 +2822,7 @@
       </c>
       <c r="G62" s="25"/>
     </row>
-    <row r="63" spans="1:7" ht="60">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>186</v>
       </c>
@@ -2801,7 +2839,7 @@
       </c>
       <c r="G63" s="25"/>
     </row>
-    <row r="64" spans="1:7" ht="60">
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>187</v>
       </c>
@@ -2818,7 +2856,7 @@
       </c>
       <c r="G64" s="25"/>
     </row>
-    <row r="65" spans="1:7" ht="240">
+    <row r="65" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>188</v>
       </c>
@@ -2835,7 +2873,7 @@
       </c>
       <c r="G65" s="25"/>
     </row>
-    <row r="66" spans="1:7" ht="90">
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>189</v>
       </c>
@@ -2852,7 +2890,7 @@
       </c>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="1:7" ht="75">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>190</v>
       </c>
@@ -2869,7 +2907,7 @@
       </c>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="1:7" ht="45">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>191</v>
       </c>
@@ -2882,7 +2920,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="34"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>194</v>
       </c>
@@ -2899,7 +2937,7 @@
       </c>
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="1:7" ht="150">
+    <row r="70" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>195</v>
       </c>
@@ -2916,7 +2954,7 @@
       </c>
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="1:7" ht="60">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>196</v>
       </c>
@@ -2933,7 +2971,7 @@
       </c>
       <c r="G71" s="25"/>
     </row>
-    <row r="72" spans="1:7" ht="45">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="40" t="s">
         <v>197</v>
       </c>
@@ -2946,7 +2984,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="34"/>
     </row>
-    <row r="73" spans="1:7" ht="60">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>210</v>
       </c>
@@ -2963,7 +3001,7 @@
       </c>
       <c r="G73" s="25"/>
     </row>
-    <row r="74" spans="1:7" ht="60">
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>211</v>
       </c>
@@ -2980,7 +3018,7 @@
       </c>
       <c r="G74" s="25"/>
     </row>
-    <row r="75" spans="1:7" ht="75">
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>212</v>
       </c>
@@ -2997,7 +3035,7 @@
       </c>
       <c r="G75" s="25"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>213</v>
       </c>
@@ -3014,7 +3052,7 @@
       </c>
       <c r="G76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="60">
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>214</v>
       </c>
@@ -3031,7 +3069,7 @@
       </c>
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="1:7" ht="60">
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>215</v>
       </c>
@@ -3048,7 +3086,7 @@
       </c>
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" ht="60">
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>216</v>
       </c>
@@ -3065,7 +3103,7 @@
       </c>
       <c r="G79" s="25"/>
     </row>
-    <row r="80" spans="1:7" ht="60">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>217</v>
       </c>
@@ -3082,7 +3120,7 @@
       </c>
       <c r="G80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="60">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>218</v>
       </c>
@@ -3099,7 +3137,7 @@
       </c>
       <c r="G81" s="25"/>
     </row>
-    <row r="82" spans="1:7" ht="60">
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>219</v>
       </c>
@@ -3116,7 +3154,7 @@
       </c>
       <c r="G82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="60">
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>220</v>
       </c>
@@ -3133,7 +3171,7 @@
       </c>
       <c r="G83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="75">
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>221</v>
       </c>
@@ -3150,7 +3188,7 @@
       </c>
       <c r="G84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="75">
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>222</v>
       </c>
@@ -3167,7 +3205,7 @@
       </c>
       <c r="G85" s="25"/>
     </row>
-    <row r="86" spans="1:7" ht="75">
+    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>223</v>
       </c>
@@ -3184,7 +3222,7 @@
       </c>
       <c r="G86" s="25"/>
     </row>
-    <row r="87" spans="1:7" ht="45">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
         <v>224</v>
       </c>
@@ -3197,7 +3235,7 @@
       <c r="F87" s="16"/>
       <c r="G87" s="34"/>
     </row>
-    <row r="88" spans="1:7" ht="195">
+    <row r="88" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>226</v>
       </c>
@@ -3214,7 +3252,7 @@
       </c>
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="90">
+    <row r="89" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>227</v>
       </c>
@@ -3231,7 +3269,7 @@
       </c>
       <c r="G89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="60.75" thickBot="1">
+    <row r="90" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
         <v>228</v>
       </c>
@@ -3248,53 +3286,58 @@
       </c>
       <c r="G90" s="39"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="F56:F60 F47:F54 F69:F71 F62:F67 F7:F12 F14:F18 F73:F86 F35:F45 F20:F33">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="32" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="3" priority="33" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F90">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",F88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3309,33 +3352,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="63">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="63">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="63">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B8" s="63">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="63">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="63">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="63">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>5.2</v>
+      </c>
+      <c r="B9" s="63">
+        <f>COUNTIF(Sheet1!F20:F33, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="63">
+        <f>COUNTIF(Sheet1!F20:F33, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
+        <f>COUNTIF(Sheet1!F20:F33, Sheet2!D6)</f>
+        <v>14</v>
+      </c>
+      <c r="E9" s="63">
+        <f>COUNTIF(Sheet1!F20:F33, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>5.3</v>
+      </c>
+      <c r="B10" s="63">
+        <f>COUNTIF(Sheet1!F35:F45, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="63">
+        <f>COUNTIF(Sheet1!F35:F45, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="63">
+        <f>COUNTIF(Sheet1!F35:F45, Sheet2!D6)</f>
+        <v>11</v>
+      </c>
+      <c r="E10" s="63">
+        <f>COUNTIF(Sheet1!F35:F45, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>5.4</v>
+      </c>
+      <c r="B11" s="63">
+        <f>COUNTIF(Sheet1!F47:F54, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="63">
+        <f>COUNTIF(Sheet1!F47:F54, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="63">
+        <f>COUNTIF(Sheet1!F47:F54, Sheet2!D6)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="63">
+        <f>COUNTIF(Sheet1!F47:F54, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>5.5</v>
+      </c>
+      <c r="B12" s="63">
+        <f>COUNTIF(Sheet1!F56:F60, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="63">
+        <f>COUNTIF(Sheet1!F56:F60, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <f>COUNTIF(Sheet1!F56:F60, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="63">
+        <f>COUNTIF(Sheet1!F56:F60, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="63">
+        <f>COUNTIF(Sheet1!F62:F67, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="63">
+        <f>COUNTIF(Sheet1!F62:F67, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="63">
+        <f>COUNTIF(Sheet1!F62:F67, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="63">
+        <f>COUNTIF(Sheet1!F62:F67, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="63">
+        <f>COUNTIF(Sheet1!F69:F71, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="63">
+        <f>COUNTIF(Sheet1!F69:F71, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="63">
+        <f>COUNTIF(Sheet1!F69:F71, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="63">
+        <f>COUNTIF(Sheet1!F69:F71, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="63">
+        <f>COUNTIF(Sheet1!F73:F86, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="63">
+        <f>COUNTIF(Sheet1!F73:F86, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="63">
+        <f>COUNTIF(Sheet1!F73:F86, Sheet2!D6)</f>
+        <v>14</v>
+      </c>
+      <c r="E15" s="63">
+        <f>COUNTIF(Sheet1!F73:F86, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="63">
+        <f>COUNTIF(Sheet1!F88:F90, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="63">
+        <f>COUNTIF(Sheet1!F88:F90, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="63">
+        <f>COUNTIF(Sheet1!F88:F90, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="63">
+        <f>COUNTIF(Sheet1!F88:F90, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B7:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D7:D16)</f>
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3344,31 +3638,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
